--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>189500</v>
+        <v>214300</v>
       </c>
       <c r="E8" s="3">
+        <v>347000</v>
+      </c>
+      <c r="F8" s="3">
         <v>157500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>141800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>125200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>53200</v>
+        <v>57200</v>
       </c>
       <c r="E14" s="3">
+        <v>104600</v>
+      </c>
+      <c r="F14" s="3">
         <v>49400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>33700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>37900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221200</v>
+        <v>383800</v>
       </c>
       <c r="E17" s="3">
+        <v>407100</v>
+      </c>
+      <c r="F17" s="3">
         <v>202200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>209900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>110300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31700</v>
+        <v>-169500</v>
       </c>
       <c r="E18" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-44700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-81500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>-77800</v>
       </c>
       <c r="E20" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F20" s="3">
         <v>29500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-28100</v>
+        <v>-242200</v>
       </c>
       <c r="E21" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>-28600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,45 +1136,51 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31500</v>
+        <v>-247200</v>
       </c>
       <c r="E23" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-85500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1149,13 +1195,16 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31600</v>
+        <v>-247200</v>
       </c>
       <c r="E26" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-85600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31600</v>
+        <v>-247200</v>
       </c>
       <c r="E27" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-85600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-44200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>77800</v>
       </c>
       <c r="E32" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-29500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31600</v>
+        <v>-247200</v>
       </c>
       <c r="E33" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-85600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-44200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31600</v>
+        <v>-247200</v>
       </c>
       <c r="E35" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-85600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-44200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1619,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1623700</v>
+      </c>
+      <c r="E41" s="3">
         <v>520700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>684400</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,20 +1681,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E43" s="3">
         <v>67000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,37 +1745,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>90900</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,20 +1809,23 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2111900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1770000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1294400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
@@ -1736,20 +1841,23 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E48" s="3">
         <v>49400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>49600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1765,37 +1873,43 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>279200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E52" s="3">
         <v>125100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>108100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2033,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4766400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2708100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2250500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>5</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,20 +2095,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="3">
         <v>26200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,20 +2157,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E59" s="3">
         <v>80800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,20 +2221,23 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2001500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1623400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1197800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,20 +2381,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2362400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1730400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1271500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,20 +2491,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>1327300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>1327200</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,20 +2555,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-734900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-494000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-462400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,20 +2683,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-349600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-348100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31600</v>
+        <v>-247200</v>
       </c>
       <c r="E81" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-85600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-44200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,20 +2832,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="E83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,20 +3022,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-47700</v>
+        <v>-123300</v>
       </c>
       <c r="E89" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,20 +3070,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,20 +3164,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-548900</v>
+        <v>-199700</v>
       </c>
       <c r="E94" s="3">
+        <v>-906700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-357800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,20 +3338,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>447500</v>
+        <v>1488600</v>
       </c>
       <c r="E100" s="3">
+        <v>1265300</v>
+      </c>
+      <c r="F100" s="3">
         <v>817800</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,20 +3402,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-149100</v>
+        <v>1170200</v>
       </c>
       <c r="E102" s="3">
+        <v>308700</v>
+      </c>
+      <c r="F102" s="3">
         <v>457700</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>5</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>219200</v>
+      </c>
+      <c r="F8" s="3">
         <v>214300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>347000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>157500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>141800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>128400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>125200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>82200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>69600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F14" s="3">
         <v>57200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>104600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>49400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>43700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>33700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>37900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>14200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>404500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>368900</v>
+      </c>
+      <c r="F17" s="3">
         <v>383800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>407100</v>
       </c>
-      <c r="F17" s="3">
-        <v>202200</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>190800</v>
+      </c>
+      <c r="I17" s="3">
         <v>102400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>209900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>157900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>115200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>110300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-149700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-169500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-60100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="I18" s="3">
         <v>39400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-81500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-32700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-33000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-40700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1109,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-77800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>29700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>29500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-147800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-242200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-23300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>-28600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,54 +1219,66 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-306400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-155700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-247200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-30400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I23" s="3">
         <v>34900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-85500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-30900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-30700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-36400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1198,13 +1290,19 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-247200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-30600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I26" s="3">
         <v>34800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-85600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-31000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-30800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-247200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-30600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I27" s="3">
         <v>34800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-85600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-44200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-30800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="3">
         <v>77800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-29700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-29500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-247200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-30600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I33" s="3">
         <v>34800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-85600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-44200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-30800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-247200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-30600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I35" s="3">
         <v>34800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-85600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-44200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-30800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,26 +1792,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1439500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1466600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1623700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>520700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>684400</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,26 +1864,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>91600</v>
+      </c>
+      <c r="F43" s="3">
         <v>66100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>67000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>49000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,20 +1940,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>111300</v>
+      </c>
+      <c r="F45" s="3">
         <v>90900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1774,14 +1972,20 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,26 +2016,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2586800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1971500</v>
+      </c>
+      <c r="F47" s="3">
         <v>2111900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1770000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1294400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
@@ -1844,26 +2054,32 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F48" s="3">
         <v>113100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>49400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>49600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1876,20 +2092,26 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>612100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>584400</v>
+      </c>
+      <c r="F49" s="3">
         <v>279200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1902,14 +2124,20 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2206,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>247100</v>
+      </c>
+      <c r="F52" s="3">
         <v>204100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>125100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>108100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,26 +2282,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5402100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4867000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4766400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2708100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2250500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,26 +2356,28 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>425900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F57" s="3">
         <v>29000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>26200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>24500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2390,14 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,26 +2428,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200800</v>
+      </c>
+      <c r="F59" s="3">
         <v>177700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>80800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>49200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2466,14 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,26 +2504,32 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2106500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1857300</v>
+      </c>
+      <c r="F61" s="3">
         <v>2001500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1623400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1197800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,26 +2694,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3024700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2285800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2362400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1730400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1271500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,17 +2839,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>1327300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>1327200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,26 +2900,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1205100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-888400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-734900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-494000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-462400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,26 +3052,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2377400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2581200</v>
+      </c>
+      <c r="F76" s="3">
         <v>2404000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-349600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-348100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-247200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-30600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I81" s="3">
         <v>34800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-85600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-44200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-30800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,26 +3229,28 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,26 +3453,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>365200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-123300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-50000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,26 +3511,28 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,26 +3621,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-629500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>84300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-199700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-906700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-357800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,26 +3827,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1488600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1265300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>817800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3373,31 +3865,37 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-2700</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3405,26 +3903,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1170200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>308700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>457700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>5</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E8" s="3">
         <v>238400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>219200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>214300</v>
       </c>
-      <c r="G8" s="3">
-        <v>347000</v>
-      </c>
       <c r="H8" s="3">
+        <v>189500</v>
+      </c>
+      <c r="I8" s="3">
         <v>157500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>141800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>128400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>125200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E14" s="3">
         <v>20700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>57200</v>
       </c>
-      <c r="G14" s="3">
-        <v>104600</v>
-      </c>
       <c r="H14" s="3">
+        <v>55200</v>
+      </c>
+      <c r="I14" s="3">
         <v>49400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>43700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>499500</v>
+      </c>
+      <c r="E17" s="3">
         <v>404500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>368900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>383800</v>
       </c>
-      <c r="G17" s="3">
-        <v>407100</v>
-      </c>
       <c r="H17" s="3">
+        <v>216300</v>
+      </c>
+      <c r="I17" s="3">
         <v>190800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>209900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-196200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-166100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-149700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-169500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-60100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-81500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-140400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-77800</v>
       </c>
-      <c r="G20" s="3">
-        <v>29700</v>
-      </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>29500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-295900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-147800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-242200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-23300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>-28600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,60 +1264,66 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-159500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-306400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-155700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-247200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-30400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-85500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1296,13 +1341,16 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-306600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-153200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-247200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-30600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-85600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-306600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-153200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-247200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-30600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-85600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E32" s="3">
         <v>140400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>77800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-29700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-29500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-306600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-153200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-247200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-30600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-85600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-306600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-153200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-247200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-30600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-85600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2567400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1439500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1466600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1623700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>520700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>684400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E43" s="3">
         <v>101000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>91600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,23 +2041,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>111300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1978,14 +2076,17 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,28 +2123,31 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2586800</v>
+        <v>2790300</v>
       </c>
       <c r="E47" s="3">
-        <v>1971500</v>
+        <v>2585000</v>
       </c>
       <c r="F47" s="3">
-        <v>2111900</v>
+        <v>1958400</v>
       </c>
       <c r="G47" s="3">
-        <v>1770000</v>
+        <v>2099100</v>
       </c>
       <c r="H47" s="3">
-        <v>1294400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>1757700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1290300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -2060,29 +2164,32 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E48" s="3">
         <v>143500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>120300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>113100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2098,23 +2205,26 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>607600</v>
+      </c>
+      <c r="E49" s="3">
         <v>612100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>584400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>279200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2130,14 +2240,17 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,28 +2328,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>254200</v>
+        <v>298700</v>
       </c>
       <c r="E52" s="3">
-        <v>247100</v>
+        <v>256000</v>
       </c>
       <c r="F52" s="3">
-        <v>204100</v>
+        <v>260200</v>
       </c>
       <c r="G52" s="3">
-        <v>125100</v>
+        <v>216800</v>
       </c>
       <c r="H52" s="3">
-        <v>108100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>137500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>112200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6952400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5402100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4867000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4766400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2708100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2250500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E57" s="3">
         <v>425900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E59" s="3">
         <v>180000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>177700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2472,8 +2608,11 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,29 +2649,32 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3927900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2106500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1857300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2001500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1623400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1197800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4484100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3024700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2285800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2362400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1730400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1271500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,14 +3012,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>1327300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1327200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1364800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-888400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-734900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-494000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-462400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2468300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2377400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2581200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2404000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-349600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-348100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-306600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-153200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-247200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-30600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-85600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,29 +3428,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E83" s="3">
         <v>10500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
       </c>
-      <c r="G83" s="3">
-        <v>7100</v>
-      </c>
       <c r="H83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,29 +3672,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-440300</v>
+      </c>
+      <c r="E89" s="3">
         <v>365200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-123300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,29 +3732,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,29 +3853,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-629500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>84300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-199700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-906700</v>
-      </c>
       <c r="H94" s="3">
+        <v>-548900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-357800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,29 +4075,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1766300</v>
+      </c>
+      <c r="E100" s="3">
         <v>244000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-176100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1488600</v>
       </c>
-      <c r="G100" s="3">
-        <v>1265300</v>
-      </c>
       <c r="H100" s="3">
+        <v>447500</v>
+      </c>
+      <c r="I100" s="3">
         <v>817800</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3871,20 +4116,23 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3897,8 +4145,8 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3909,29 +4157,32 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-114400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1170200</v>
       </c>
-      <c r="G102" s="3">
-        <v>308700</v>
-      </c>
       <c r="H102" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="I102" s="3">
         <v>457700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>5</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -1060,7 +1060,7 @@
         <v>368900</v>
       </c>
       <c r="G17" s="3">
-        <v>383800</v>
+        <v>423700</v>
       </c>
       <c r="H17" s="3">
         <v>216300</v>
@@ -1101,7 +1101,7 @@
         <v>-149700</v>
       </c>
       <c r="G18" s="3">
-        <v>-169500</v>
+        <v>-209400</v>
       </c>
       <c r="H18" s="3">
         <v>-26800</v>
@@ -1200,7 +1200,7 @@
         <v>-147800</v>
       </c>
       <c r="G21" s="3">
-        <v>-242200</v>
+        <v>-282100</v>
       </c>
       <c r="H21" s="3">
         <v>-23200</v>
@@ -1282,7 +1282,7 @@
         <v>-155700</v>
       </c>
       <c r="G23" s="3">
-        <v>-247200</v>
+        <v>-287100</v>
       </c>
       <c r="H23" s="3">
         <v>-26500</v>
@@ -1405,7 +1405,7 @@
         <v>-153200</v>
       </c>
       <c r="G26" s="3">
-        <v>-247200</v>
+        <v>-287100</v>
       </c>
       <c r="H26" s="3">
         <v>-26600</v>
@@ -1446,7 +1446,7 @@
         <v>-153200</v>
       </c>
       <c r="G27" s="3">
-        <v>-247200</v>
+        <v>-287100</v>
       </c>
       <c r="H27" s="3">
         <v>-26600</v>
@@ -1692,7 +1692,7 @@
         <v>-153200</v>
       </c>
       <c r="G33" s="3">
-        <v>-247200</v>
+        <v>-287100</v>
       </c>
       <c r="H33" s="3">
         <v>-26600</v>
@@ -1774,7 +1774,7 @@
         <v>-153200</v>
       </c>
       <c r="G35" s="3">
-        <v>-247200</v>
+        <v>-287100</v>
       </c>
       <c r="H35" s="3">
         <v>-26600</v>
@@ -3386,7 +3386,7 @@
         <v>-153200</v>
       </c>
       <c r="G81" s="3">
-        <v>-247200</v>
+        <v>-287100</v>
       </c>
       <c r="H81" s="3">
         <v>-26600</v>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>302300</v>
+      </c>
+      <c r="E8" s="3">
         <v>303300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>238400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>219200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>214300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>189500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>157500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>141800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>82200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E14" s="3">
         <v>7600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>57200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>49400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>43700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>37900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>528800</v>
+      </c>
+      <c r="E17" s="3">
         <v>499500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>404500</v>
       </c>
-      <c r="F17" s="3">
-        <v>368900</v>
-      </c>
       <c r="G17" s="3">
+        <v>333500</v>
+      </c>
+      <c r="H17" s="3">
         <v>423700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>216300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>190800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>209900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-226500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-196200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-166100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-149700</v>
-      </c>
       <c r="G18" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-209400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-81500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-40700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E20" s="3">
         <v>36800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-140400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G20" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-77800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-147500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-295900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-147800</v>
-      </c>
       <c r="G21" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-282100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>-28600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-159500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-306400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-155700</v>
-      </c>
       <c r="G23" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-287100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-85500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,16 +1363,16 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1344,13 +1390,16 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-159700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-306600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-153200</v>
-      </c>
       <c r="G26" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-287100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-85600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-159700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-306600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-153200</v>
-      </c>
       <c r="G27" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-287100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-85600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-172100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>140400</v>
       </c>
-      <c r="F32" s="3">
-        <v>6000</v>
-      </c>
       <c r="G32" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H32" s="3">
         <v>77800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-159700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-306600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-153200</v>
-      </c>
       <c r="G33" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-287100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-85600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-159700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-306600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-153200</v>
-      </c>
       <c r="G35" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-287100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-85600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2261900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2567400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1439500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1466600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1623700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>520700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>684400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E43" s="3">
         <v>134600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>91600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,26 +2140,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E45" s="3">
         <v>37300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>111300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2079,14 +2178,17 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,32 +2228,35 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3008600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2790300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2585000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1958400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2099100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1757700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1290300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2167,32 +2272,35 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E48" s="3">
         <v>169400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>143500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>120300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>113100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2208,26 +2316,29 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>608300</v>
+      </c>
+      <c r="E49" s="3">
         <v>607600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>612100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>584400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>279200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2243,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>440500</v>
+      </c>
+      <c r="E52" s="3">
         <v>298700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>256000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>260200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>216800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>137500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>112200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7031700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6952400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5402100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4867000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4766400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2708100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2250500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2618,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>425900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,32 +2704,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E59" s="3">
         <v>213200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>180000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>177700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>80800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,32 +2792,35 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4054400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3927900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2106500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1857300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2001500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1623400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1197800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4455700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4484100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3024700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2285800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2362400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1730400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1271500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,14 +3183,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>1327300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1327200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1419500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1364800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-888400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-734900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-494000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-462400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2576100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2468300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2377400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2581200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2404000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-349600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-348100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-159700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-306600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-153200</v>
-      </c>
       <c r="G81" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-287100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-85600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,32 +3627,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E83" s="3">
         <v>12000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,32 +3889,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-440300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>365200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-123300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,32 +3953,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,32 +4083,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-190100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-629500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>84300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-199700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-548900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-357800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,32 +4321,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1766300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>244000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-176100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1488600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>447500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>817800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4119,23 +4365,26 @@
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4148,8 +4397,8 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4160,32 +4409,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1139000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-114400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1170200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-149100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>457700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>5</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,132 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>308900</v>
+      </c>
+      <c r="F8" s="3">
         <v>302300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>303300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>238400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>219200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>214300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>189500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>157500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>141800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>128400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>125200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>82200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>69600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>7600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>20700</v>
       </c>
-      <c r="G14" s="3">
-        <v>10800</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J14" s="3">
         <v>57200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>55200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>49400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>43700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>33700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>37900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>14200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>22000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>585500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>586100</v>
+      </c>
+      <c r="F17" s="3">
         <v>528800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>499500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>404500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>333500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>423700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>216300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>190800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>102400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>209900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>157900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>115200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>110300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-287500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-277200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-226500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-196200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-166100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-114300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-209400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-26800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-33300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>39400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-81500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-32700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-33000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-40700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F20" s="3">
         <v>172100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>36800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-140400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-11600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-77800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>29500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-187400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-41300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-147500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-295900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-118000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-282100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-23200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>-28600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,75 +1390,87 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-251400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-204500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-54400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-159500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-306400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-125900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-287100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-26500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>34900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-85500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-30900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-30700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-36400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1393,13 +1485,19 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-54700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-159700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-306600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-123400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-287100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-26600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>34800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-85600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-31000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-30800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-54700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-159700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-306600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-123400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-287100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-26600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>34800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-85600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-44200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-30800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-172100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-36800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>140400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>11600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>77800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-29500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-54700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-159700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-306600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-123400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-287100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-26600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>34800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-85600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-44200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-30800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-54700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-159700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-306600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-123400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-287100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-26600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>34800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-85600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-44200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-30800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2139,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1530100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1255200</v>
+      </c>
+      <c r="F41" s="3">
         <v>2261900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2567400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1439500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1466600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1623700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>520700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>684400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,38 +2235,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>142100</v>
+      </c>
+      <c r="F43" s="3">
         <v>124600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>134600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>101000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>91600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>66100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>67000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>49000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,32 +2335,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>35200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="G45" s="3">
         <v>37300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>111300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>90900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2181,14 +2379,20 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,38 +2435,44 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3826600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4003900</v>
+      </c>
+      <c r="F47" s="3">
         <v>3008600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2790300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2585000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1958400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2099100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1757700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1290300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2275,38 +2485,44 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>222200</v>
+      </c>
+      <c r="F48" s="3">
         <v>194000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>169400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>143500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>120300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>113100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>49400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>49600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,32 +2535,38 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>618500</v>
+      </c>
+      <c r="F49" s="3">
         <v>608300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>607600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>612100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>584400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>279200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2357,14 +2579,20 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2685,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>422300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>335800</v>
+      </c>
+      <c r="F52" s="3">
         <v>440500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>298700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>256000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>260200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>216800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>137500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>112200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2785,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7165100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6973800</v>
+      </c>
+      <c r="F54" s="3">
         <v>7031700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6952400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5402100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4867000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4766400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2708100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2250500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2879,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F57" s="3">
         <v>49000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>45600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>425900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>57800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>29000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>26200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>24500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2975,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>211100</v>
+      </c>
+      <c r="F59" s="3">
         <v>151400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>213200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>180000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>177700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>80800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>49200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2751,8 +3025,14 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,38 +3075,44 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4221200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4006800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4054400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3927900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2106500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1857300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2001500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1623400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1197800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3325,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4601600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4355500</v>
+      </c>
+      <c r="F66" s="3">
         <v>4455700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4484100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3024700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2285800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2362400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1730400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1271500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,17 +3522,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1327300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1327200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3595,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1857200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1605900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1419500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1364800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-888400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-734900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-494000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-462400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3795,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2563400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2618300</v>
+      </c>
+      <c r="F76" s="3">
         <v>2576100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2468300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2377400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2581200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2404000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-349600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-348100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-54700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-159700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-306600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-123400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-287100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-26600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>34800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-85600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-44200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-30800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,38 +4024,40 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F83" s="3">
         <v>13100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,38 +4320,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-440300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>365200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-19900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-123300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-47700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3936,8 +4370,14 @@
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,38 +4394,40 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-21800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4540,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1025700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-166000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-190100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-629500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>84300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-199700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-548900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-357800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,38 +4810,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F100" s="3">
         <v>55800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1766300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>244000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-176100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1488600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>447500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>817800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4368,29 +4860,35 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4400,11 +4898,11 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4412,38 +4910,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1124800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-139200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1139000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-114400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1170200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-149100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>457700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>5</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E8" s="3">
         <v>298000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>308900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>302300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>303300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>238400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>219200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>214300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>189500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>141800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-28000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-15000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>57200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>49400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>43700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>33700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>37900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>699500</v>
+      </c>
+      <c r="E17" s="3">
         <v>585500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>586100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>528800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>499500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>404500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>333500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>423700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>216300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>190800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>102400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>209900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>115200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>110300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-359500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-287500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-277200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-226500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-196200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-166100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-114300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-209400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-40700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E20" s="3">
         <v>36000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>72700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>172100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>36800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-140400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-77800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-230600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-187400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-147500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-295900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-118000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-282100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,84 +1435,90 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-251400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-204500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-159500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-306400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-125900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-287100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-85500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-18100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1491,13 +1536,16 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-322400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-251300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-186400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-159700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-306600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-123400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-287100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-85600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-322400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-251300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-186400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-159700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-306600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-123400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-287100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-85600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-44200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-72700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-172100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-36800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>140400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>77800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-322400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-251300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-186400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-159700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-306600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-123400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-287100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-85600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-322400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-251300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-186400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-159700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-306600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-123400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-287100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-85600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1440300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1530100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1255200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2261900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2567400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1439500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1466600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1623700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>520700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>684400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,41 +2330,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E43" s="3">
         <v>147800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>142100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>124600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>134600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>101000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>91600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,35 +2436,38 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
         <v>15100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>35200</v>
       </c>
       <c r="F45" s="3">
         <v>35200</v>
       </c>
       <c r="G45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="H45" s="3">
         <v>37300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>111300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2385,14 +2483,17 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,41 +2542,44 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4453200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3826600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4003900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3008600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2790300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2585000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1958400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2099100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1757700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1290300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E48" s="3">
         <v>256200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>222200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>194000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>169400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>143500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>120300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2541,35 +2648,38 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>591400</v>
+      </c>
+      <c r="E49" s="3">
         <v>596000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>618500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>608300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>607600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>612100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>584400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>279200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2585,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E52" s="3">
         <v>422300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>335800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>440500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>298700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>256000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>260200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>216800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>137500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>112200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7804800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7165100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6973800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7031700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6952400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5402100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4867000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4766400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2708100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2250500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="3">
         <v>34500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>425900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>249700</v>
+      </c>
+      <c r="E59" s="3">
         <v>220900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>211100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>151400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>213200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>180000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>177700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,41 +3220,44 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4905700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4221200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4006800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4054400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3927900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2106500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1857300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2001500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1623400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1197800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5294600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4601600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4355500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4455700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4484100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3024700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2285800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2362400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1730400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1271500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1327300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1327200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2179600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1857200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1605900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1419500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1364800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-888400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-734900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-494000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-462400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2510100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2563400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2618300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2576100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2468300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2377400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2581200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2404000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-349600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-348100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-322400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-251300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-186400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-159700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-306600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-123400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-287100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-85600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,41 +4223,42 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,41 +4539,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E89" s="3">
         <v>51200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-59100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-440300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>365200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-123300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,41 +4615,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,41 +4772,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-692200</v>
+      </c>
+      <c r="E94" s="3">
         <v>117300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1025700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-166000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-190100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-629500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>84300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-199700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-548900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-357800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,41 +5058,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>669800</v>
+      </c>
+      <c r="E100" s="3">
         <v>199500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>55800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1766300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>244000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-176100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1488600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>447500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>817800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4866,32 +5111,35 @@
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4904,8 +5152,8 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4916,41 +5164,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E102" s="3">
         <v>362700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1124800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-139200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1139000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-114400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1170200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-149100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>457700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>5</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>348200</v>
+      </c>
+      <c r="E8" s="3">
         <v>340000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>298000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>308900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>302300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>303300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>219200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>189500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>141800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>128400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-21200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-28000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-15000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>57200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>43700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>33700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>37900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>658200</v>
+      </c>
+      <c r="E17" s="3">
         <v>699500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>585500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>586100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>528800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>499500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>404500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>333500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>423700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>216300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>190800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>209900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>115200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>110300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-359500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-287500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-277200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-226500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-196200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-166100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-114300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-209400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-81500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-33000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-40700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E20" s="3">
         <v>35500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>36000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>72700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>172100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>36800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-140400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-77800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-301000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-230600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-187400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-147500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-295900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-118000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-282100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>-28600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,90 +1478,96 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-206500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-324000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-251400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-204500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-159500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-306400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-125900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-287100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-85500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-36400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1539,13 +1585,16 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-322400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-251300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-186400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-159700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-306600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-123400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-287100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-85600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-322400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-251300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-186400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-159700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-306600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-123400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-287100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-85600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-36000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-72700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-172100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-36800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>140400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>77800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-322400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-251300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-186400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-159700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-306600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-123400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-287100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-85600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-322400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-251300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-186400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-159700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-306600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-123400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-287100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-85600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>972500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1440300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1530100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1255200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2261900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2567400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1439500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1466600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1623700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>520700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>684400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E43" s="3">
         <v>201600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>142100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>124600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>134600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>101000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>91600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,38 +2535,41 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>14300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>35200</v>
       </c>
       <c r="G45" s="3">
         <v>35200</v>
       </c>
       <c r="H45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I45" s="3">
         <v>37300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>111300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2486,14 +2585,17 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,44 +2647,47 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4701400</v>
+      </c>
+      <c r="E47" s="3">
         <v>4453200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3826600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4003900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3008600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2790300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2585000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1958400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2099100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1757700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1290300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>311200</v>
+      </c>
+      <c r="E48" s="3">
         <v>292600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>256200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>222200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>194000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>169400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>143500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>120300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2651,38 +2759,41 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>585400</v>
+      </c>
+      <c r="E49" s="3">
         <v>591400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>596000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>618500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>608300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>607600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>612100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>584400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>279200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E52" s="3">
         <v>459100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>422300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>335800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>440500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>298700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>256000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>260200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>216800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>137500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>112200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7507800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7804800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7165100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6973800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7031700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6952400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5402100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4867000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4766400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2708100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2250500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
         <v>29000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>425900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E59" s="3">
         <v>249700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>220900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>211100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>151400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>213200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>180000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>177700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,44 +3363,47 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4716300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4905700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4221200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4006800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4054400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3927900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2106500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1857300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2001500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1623400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1197800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4996700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5294600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4601600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4355500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4455700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4484100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3024700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2285800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2362400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1730400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1271500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1327300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1327200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2385300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2179600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1857200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1605900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1419500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1364800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-888400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-734900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-494000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-462400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2511100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2510100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2563400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2618300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2576100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2468300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2377400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2581200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2404000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-349600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-348100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-322400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-251300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-186400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-159700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-306600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-123400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-287100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-85600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,44 +4422,45 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E83" s="3">
         <v>23000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,44 +4756,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-59100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-440300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>365200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-123300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,44 +4836,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-27000</v>
-      </c>
       <c r="G91" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-21100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,44 +5002,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-692200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>117300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1025700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-166000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-190100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-629500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>84300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-199700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-548900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-357800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,44 +5304,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E100" s="3">
         <v>669800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>199500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>55800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1766300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>244000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-176100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1488600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>447500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>817800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5114,35 +5360,38 @@
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5155,8 +5404,8 @@
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5167,44 +5416,47 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-483300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>362700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1124800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-139200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1139000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-114400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1170200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-149100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>457700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>5</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>413500</v>
+      </c>
+      <c r="E8" s="3">
         <v>348200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>340000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>298000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>308900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>302300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>303300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>219200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>189500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>157500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>141800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>128400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>69600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E14" s="3">
         <v>33300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-21200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-28000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-15000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>57200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>49400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>43700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>33700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>657300</v>
+      </c>
+      <c r="E17" s="3">
         <v>658200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>699500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>585500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>586100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>528800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>499500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>404500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>333500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>423700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>216300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>190800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>102400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>209900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>157900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>115200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>110300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-310000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-359500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-287500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-277200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-226500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-196200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-166100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-114300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-209400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-33300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-81500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-32700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-33000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-40700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E20" s="3">
         <v>103500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>36000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>72700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>172100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>36800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-140400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-77800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-159000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-301000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-230600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-187400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-41300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-147500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-295900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-118000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-282100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>-28600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,96 +1521,102 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-207300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-206500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-324000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-251400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-204500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-159500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-306400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-125900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-287100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-36400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1588,13 +1634,16 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-205700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-322400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-251300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-186400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-159700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-306600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-123400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-287100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-205700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-322400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-251300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-186400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-54700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-159700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-306600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-123400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-287100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-44200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-30800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-103500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-36000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-72700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-172100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-36800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>140400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>77800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-205700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-322400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-251300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-186400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-54700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-159700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-306600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-123400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-287100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-30800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-205700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-322400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-251300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-186400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-54700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-159700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-306600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-123400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-287100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-30800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2400,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E41" s="3">
         <v>972500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1440300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1530100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1255200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2261900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2567400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1439500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1466600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1623700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>520700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>684400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,47 +2516,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E43" s="3">
         <v>135800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>201600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>142100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>124600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>134600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>91600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,41 +2634,44 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
         <v>14300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>35200</v>
       </c>
       <c r="H45" s="3">
         <v>35200</v>
       </c>
       <c r="I45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J45" s="3">
         <v>37300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2588,14 +2687,17 @@
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,47 +2752,50 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5416300</v>
+      </c>
+      <c r="E47" s="3">
         <v>4701400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4453200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3826600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4003900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3008600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2790300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2585000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1958400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2099100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1757700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1290300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2706,47 +2811,50 @@
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E48" s="3">
         <v>311200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>292600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>256200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>222200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>194000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>169400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>143500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2762,41 +2870,44 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E49" s="3">
         <v>585400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>591400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>596000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>618500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>608300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>607600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>612100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>584400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>279200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3047,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>403600</v>
+      </c>
+      <c r="E52" s="3">
         <v>439000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>459100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>422300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>335800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>440500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>298700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>256000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>260200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>216800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>137500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>112200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8155600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7507800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7804800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7165100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6973800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7031700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6952400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5402100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4867000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4766400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2708100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2250500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3272,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E57" s="3">
         <v>30000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>425900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,47 +3388,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E59" s="3">
         <v>154000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>249700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>220900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>211100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>151400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>213200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>180000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>177700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,47 +3506,50 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5344600</v>
+      </c>
+      <c r="E61" s="3">
         <v>4716300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4905700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4221200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4006800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4054400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3927900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2106500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1857300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2001500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1623400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1197800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3801,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5621400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4996700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5294600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4601600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4355500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4455700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4484100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3024700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2285800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2362400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1730400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1271500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +4037,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1327300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1327200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4119,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2591200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2385300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2179600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1857200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1605900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1419500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1364800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-888400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-734900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-494000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-462400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2534200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2511100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2510100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2563400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2618300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2576100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2468300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2377400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2581200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2404000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-349600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-348100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-205700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-322400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-251300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-186400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-54700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-159700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-306600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-123400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-287100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-30800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,47 +4621,48 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E83" s="3">
         <v>47500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,47 +4973,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-54300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-59100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-440300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>365200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-123300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,47 +5057,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,47 +5232,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-777200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-301000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-692200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>117300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1025700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-166000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-190100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-629500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>84300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-199700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-548900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-357800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,47 +5550,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>609500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-129000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>669800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>199500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>55800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1766300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>244000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-176100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1488600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>447500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>817800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5363,38 +5609,41 @@
       <c r="T100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5407,8 +5656,8 @@
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5419,47 +5668,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-483300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>362700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1124800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-139200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1139000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-114400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1170200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-149100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>457700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>5</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>AFRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>462300</v>
+      </c>
+      <c r="E8" s="3">
         <v>413500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>348200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>340000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>298000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>308900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>302300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>303300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>219200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>189500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>157500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>141800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>128400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>82200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>69600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>33300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-21200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-15000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>57200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>49400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>43700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>33700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>37900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>671700</v>
+      </c>
+      <c r="E17" s="3">
         <v>657300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>658200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>699500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>585500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>586100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>528800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>499500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>404500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>333500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>423700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>216300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>190800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>209900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>157900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>115200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>110300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-243800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-310000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-359500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-287500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-277200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-226500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-196200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-166100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-114300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-209400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-33300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-81500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-32700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-33000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-40700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E20" s="3">
         <v>36500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>103500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>35500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>36000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>72700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>172100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>36800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-140400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-77800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-130600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-164000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-159000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-301000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-230600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-187400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-41300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-147500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-295900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-118000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-282100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>-28600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,102 +1564,108 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-207300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-206500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-324000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-251400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-204500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-159500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-306400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-125900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-287100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-85500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-30700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-36400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1637,13 +1683,16 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-206000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-205700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-322400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-251300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-186400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-159700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-306600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-123400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-287100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-85600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-30800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-206000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-205700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-322400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-251300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-186400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-54700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-159700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-306600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-123400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-287100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-85600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-44200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-30800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-103500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-35500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-36000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-72700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-172100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-36800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>140400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>77800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-206000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-205700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-322400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-251300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-186400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-54700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-159700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-306600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-123400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-287100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-85600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-44200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-30800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-206000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-205700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-322400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-251300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-186400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-54700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-159700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-306600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-123400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-287100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-85600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-44200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-30800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2487,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1079300</v>
+      </c>
+      <c r="E41" s="3">
         <v>892000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>972500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1440300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1530100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1255200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2261900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2567400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1439500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1466600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1623700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>520700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>684400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,50 +2609,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>236200</v>
+      </c>
+      <c r="E43" s="3">
         <v>199100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>135800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>201600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>147800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>142100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>124600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>134600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>91600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,44 +2733,47 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>29500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>35200</v>
       </c>
       <c r="I45" s="3">
         <v>35200</v>
       </c>
       <c r="J45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K45" s="3">
         <v>37300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2690,14 +2789,17 @@
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,50 +2857,53 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5390900</v>
+      </c>
+      <c r="E47" s="3">
         <v>5416300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4701400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4453200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3826600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4003900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3008600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2790300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2585000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1958400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2099100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1757700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1290300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2814,50 +2919,53 @@
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E48" s="3">
         <v>320300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>311200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>292600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>256200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>222200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>194000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>169400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>143500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2873,44 +2981,47 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>556200</v>
+      </c>
+      <c r="E49" s="3">
         <v>577000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>585400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>591400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>596000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>618500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>608300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>607600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>612100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>584400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>279200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3167,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>434900</v>
+      </c>
+      <c r="E52" s="3">
         <v>403600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>439000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>459100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>422300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>335800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>440500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>298700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>256000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>260200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>216800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>137500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>112200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3291,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8407100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8155600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7507800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7804800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7165100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6973800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7031700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6952400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5402100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4867000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4766400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2708100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2250500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3403,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E57" s="3">
         <v>28600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>425900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,50 +3525,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E59" s="3">
         <v>170600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>154000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>249700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>220900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>211100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>151400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>213200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>180000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>177700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,50 +3649,53 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5523600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5344600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4716300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4905700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4221200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4006800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4054400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3927900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2106500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1857300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2001500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1623400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1197800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +3959,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5840300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5621400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4996700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5294600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4601600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4355500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4455700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4484100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3024700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2285800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2362400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1730400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1271500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,14 +4208,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1327300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1327200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4293,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2763000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2591200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2385300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2179600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1857200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1605900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1419500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1364800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1205100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-888400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-734900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-494000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-462400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4541,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2566800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2534200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2511100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2510100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2563400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2618300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2576100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2468300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2377400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2581200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2404000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-349600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-348100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-206000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-205700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-322400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-251300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-186400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-54700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-159700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-306600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-123400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-287100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-85600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-44200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-30800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,50 +4820,51 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E83" s="3">
         <v>43300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,50 +5190,53 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E89" s="3">
         <v>43800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-54300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-59100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-440300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>365200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-123300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-47700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,50 +5278,51 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,50 +5462,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-777200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-301000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-692200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>117300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1025700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-166000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-190100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-629500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>84300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-199700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-548900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-357800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,50 +5796,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E100" s="3">
         <v>609500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-129000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>669800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>199500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>55800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1766300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>244000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-176100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1488600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>447500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>817800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5612,41 +5858,44 @@
       <c r="U100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5659,8 +5908,8 @@
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5671,50 +5920,53 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-121500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-483300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>362700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1124800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-139200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1139000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-114400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1170200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-149100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>457700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>5</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
